--- a/Code/Results/Cases/Case_4_217/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_217/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9953153222577781</v>
+        <v>1.026932387521171</v>
       </c>
       <c r="D2">
-        <v>1.01797014337037</v>
+        <v>1.036027381065861</v>
       </c>
       <c r="E2">
-        <v>1.003522852696765</v>
+        <v>1.030562713039575</v>
       </c>
       <c r="F2">
-        <v>1.017420076079798</v>
+        <v>1.042797098461808</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045636180272518</v>
+        <v>1.032929471634726</v>
       </c>
       <c r="J2">
-        <v>1.01763705980786</v>
+        <v>1.032093075493366</v>
       </c>
       <c r="K2">
-        <v>1.029184676106127</v>
+        <v>1.038822297994701</v>
       </c>
       <c r="L2">
-        <v>1.01493332580162</v>
+        <v>1.033373363740194</v>
       </c>
       <c r="M2">
-        <v>1.028641941090634</v>
+        <v>1.04557277237106</v>
       </c>
       <c r="N2">
-        <v>1.00978204576974</v>
+        <v>1.01471034057442</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000006654113546</v>
+        <v>1.027914111079139</v>
       </c>
       <c r="D3">
-        <v>1.021669248595439</v>
+        <v>1.03680922309728</v>
       </c>
       <c r="E3">
-        <v>1.007702351484866</v>
+        <v>1.031492008187135</v>
       </c>
       <c r="F3">
-        <v>1.021835463299482</v>
+        <v>1.043766676174212</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047017588559702</v>
+        <v>1.033123224824504</v>
       </c>
       <c r="J3">
-        <v>1.020497137732786</v>
+        <v>1.032714603400047</v>
       </c>
       <c r="K3">
-        <v>1.03203217615024</v>
+        <v>1.039413730195474</v>
       </c>
       <c r="L3">
-        <v>1.01823761883411</v>
+        <v>1.034110715006926</v>
       </c>
       <c r="M3">
-        <v>1.032196375146442</v>
+        <v>1.046352839301885</v>
       </c>
       <c r="N3">
-        <v>1.010740632894319</v>
+        <v>1.014917314653295</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002977001278717</v>
+        <v>1.028549518893934</v>
       </c>
       <c r="D4">
-        <v>1.024011087373956</v>
+        <v>1.037314830967388</v>
       </c>
       <c r="E4">
-        <v>1.010354148006374</v>
+        <v>1.032093848025518</v>
       </c>
       <c r="F4">
-        <v>1.024634420894207</v>
+        <v>1.044394290338766</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047876750946656</v>
+        <v>1.033246702799699</v>
       </c>
       <c r="J4">
-        <v>1.022304860409595</v>
+        <v>1.033116358741358</v>
       </c>
       <c r="K4">
-        <v>1.033828105738362</v>
+        <v>1.039795475133688</v>
       </c>
       <c r="L4">
-        <v>1.020329193377724</v>
+        <v>1.034587731283177</v>
       </c>
       <c r="M4">
-        <v>1.034444350531484</v>
+        <v>1.046857210457465</v>
       </c>
       <c r="N4">
-        <v>1.011346360087162</v>
+        <v>1.015051056158056</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004210690041442</v>
+        <v>1.028816683828749</v>
       </c>
       <c r="D5">
-        <v>1.02498360809312</v>
+        <v>1.03752731649736</v>
       </c>
       <c r="E5">
-        <v>1.011456817081254</v>
+        <v>1.032346985963186</v>
       </c>
       <c r="F5">
-        <v>1.025797677755744</v>
+        <v>1.044658194016715</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048229818709362</v>
+        <v>1.033298159083599</v>
       </c>
       <c r="J5">
-        <v>1.023054877325074</v>
+        <v>1.033285156706183</v>
       </c>
       <c r="K5">
-        <v>1.034572288643428</v>
+        <v>1.039955732111675</v>
       </c>
       <c r="L5">
-        <v>1.021197724424993</v>
+        <v>1.034788244378481</v>
       </c>
       <c r="M5">
-        <v>1.035377354462247</v>
+        <v>1.047069155176819</v>
       </c>
       <c r="N5">
-        <v>1.011597634245717</v>
+        <v>1.015107236629846</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004416965783891</v>
+        <v>1.028861544298123</v>
       </c>
       <c r="D6">
-        <v>1.025146206730324</v>
+        <v>1.037562989497314</v>
       </c>
       <c r="E6">
-        <v>1.011641260490255</v>
+        <v>1.032389496209108</v>
       </c>
       <c r="F6">
-        <v>1.025992220029855</v>
+        <v>1.044702507783259</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048288629082195</v>
+        <v>1.033306772188205</v>
       </c>
       <c r="J6">
-        <v>1.02318023428122</v>
+        <v>1.033313492744399</v>
       </c>
       <c r="K6">
-        <v>1.034696614623661</v>
+        <v>1.039982626533336</v>
       </c>
       <c r="L6">
-        <v>1.021342933662162</v>
+        <v>1.034821909947434</v>
       </c>
       <c r="M6">
-        <v>1.035533314834054</v>
+        <v>1.047104736152709</v>
       </c>
       <c r="N6">
-        <v>1.011639629490172</v>
+        <v>1.015116666963372</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002993544262919</v>
+        <v>1.028553088610324</v>
       </c>
       <c r="D7">
-        <v>1.024024128839414</v>
+        <v>1.037317670493828</v>
       </c>
       <c r="E7">
-        <v>1.010368929070303</v>
+        <v>1.032097229979103</v>
       </c>
       <c r="F7">
-        <v>1.024650016518611</v>
+        <v>1.044397816419012</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047881500341467</v>
+        <v>1.033247392145191</v>
       </c>
       <c r="J7">
-        <v>1.022314920843195</v>
+        <v>1.033118614621746</v>
       </c>
       <c r="K7">
-        <v>1.033838091662085</v>
+        <v>1.039797617394589</v>
       </c>
       <c r="L7">
-        <v>1.020340840561024</v>
+        <v>1.034590410646404</v>
       </c>
       <c r="M7">
-        <v>1.034456864189749</v>
+        <v>1.046860042839423</v>
       </c>
       <c r="N7">
-        <v>1.011349730741503</v>
+        <v>1.015051807019298</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9969146498109051</v>
+        <v>1.02726413071148</v>
       </c>
       <c r="D8">
-        <v>1.019231229271007</v>
+        <v>1.036291668908758</v>
       </c>
       <c r="E8">
-        <v>1.004946507882331</v>
+        <v>1.030876663693603</v>
       </c>
       <c r="F8">
-        <v>1.018924604160914</v>
+        <v>1.04312472304423</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046110332507117</v>
+        <v>1.032995343093311</v>
       </c>
       <c r="J8">
-        <v>1.018612731654261</v>
+        <v>1.032303209231828</v>
       </c>
       <c r="K8">
-        <v>1.030156853059761</v>
+        <v>1.0390223717194</v>
       </c>
       <c r="L8">
-        <v>1.016059889889251</v>
+        <v>1.033622575148606</v>
       </c>
       <c r="M8">
-        <v>1.029854189040128</v>
+        <v>1.045836478670991</v>
       </c>
       <c r="N8">
-        <v>1.010109082842721</v>
+        <v>1.01478032648567</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9856754381085497</v>
+        <v>1.024994122909269</v>
       </c>
       <c r="D9">
-        <v>1.010370451210145</v>
+        <v>1.034481502763193</v>
       </c>
       <c r="E9">
-        <v>0.9949670095998281</v>
+        <v>1.0287299210981</v>
       </c>
       <c r="F9">
-        <v>1.008367742291119</v>
+        <v>1.040883194084553</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042714748184619</v>
+        <v>1.032536726116828</v>
       </c>
       <c r="J9">
-        <v>1.01174437565201</v>
+        <v>1.030863213813366</v>
       </c>
       <c r="K9">
-        <v>1.023297486305915</v>
+        <v>1.037649042044032</v>
       </c>
       <c r="L9">
-        <v>1.008142274785491</v>
+        <v>1.031916398635029</v>
       </c>
       <c r="M9">
-        <v>1.021326502031774</v>
+        <v>1.044029924110577</v>
       </c>
       <c r="N9">
-        <v>1.007806360999719</v>
+        <v>1.014300541423273</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9777866502545461</v>
+        <v>1.023481685309714</v>
       </c>
       <c r="D10">
-        <v>1.004155974839432</v>
+        <v>1.033273295834974</v>
       </c>
       <c r="E10">
-        <v>0.9879964852472511</v>
+        <v>1.027301535061857</v>
       </c>
       <c r="F10">
-        <v>1.000980807124712</v>
+        <v>1.039390123940946</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040253238154876</v>
+        <v>1.032221283734639</v>
       </c>
       <c r="J10">
-        <v>1.006910181973875</v>
+        <v>1.029901139512996</v>
       </c>
       <c r="K10">
-        <v>1.018450595132367</v>
+        <v>1.036728664973952</v>
       </c>
       <c r="L10">
-        <v>1.002585902565343</v>
+        <v>1.030778502850209</v>
       </c>
       <c r="M10">
-        <v>1.015332375348162</v>
+        <v>1.042823653569831</v>
       </c>
       <c r="N10">
-        <v>1.006185133922413</v>
+        <v>1.013979757786975</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9742666883598192</v>
+        <v>1.022827001572029</v>
       </c>
       <c r="D11">
-        <v>1.00138528531856</v>
+        <v>1.032749802598758</v>
       </c>
       <c r="E11">
-        <v>0.9848950412353384</v>
+        <v>1.026683696838485</v>
       </c>
       <c r="F11">
-        <v>0.9976910236207993</v>
+        <v>1.038743923382244</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039137239951443</v>
+        <v>1.032082400335844</v>
       </c>
       <c r="J11">
-        <v>1.004750620369335</v>
+        <v>1.029484065588566</v>
       </c>
       <c r="K11">
-        <v>1.016281124387184</v>
+        <v>1.036328997145469</v>
       </c>
       <c r="L11">
-        <v>1.000107549745833</v>
+        <v>1.030285684600244</v>
       </c>
       <c r="M11">
-        <v>1.012656615615929</v>
+        <v>1.042300884474629</v>
       </c>
       <c r="N11">
-        <v>1.005460824007979</v>
+        <v>1.013840638173576</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9729426456147389</v>
+        <v>1.022583854976826</v>
       </c>
       <c r="D12">
-        <v>1.000343506981206</v>
+        <v>1.032555305033998</v>
       </c>
       <c r="E12">
-        <v>0.9837298100509477</v>
+        <v>1.026454304492041</v>
       </c>
       <c r="F12">
-        <v>0.9964545766845978</v>
+        <v>1.03850394291285</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038714875229661</v>
+        <v>1.032030468584717</v>
       </c>
       <c r="J12">
-        <v>1.003937966107909</v>
+        <v>1.029329072782418</v>
       </c>
       <c r="K12">
-        <v>1.0154641288972</v>
+        <v>1.036180372390807</v>
       </c>
       <c r="L12">
-        <v>0.9991755036345479</v>
+        <v>1.030102615288868</v>
       </c>
       <c r="M12">
-        <v>1.01165001809441</v>
+        <v>1.042106638498541</v>
       </c>
       <c r="N12">
-        <v>1.005188257078166</v>
+        <v>1.013788930403985</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9732274230540966</v>
+        <v>1.022636009289941</v>
       </c>
       <c r="D13">
-        <v>1.000567553800746</v>
+        <v>1.032597027617922</v>
       </c>
       <c r="E13">
-        <v>0.9839803663796777</v>
+        <v>1.026503505378924</v>
       </c>
       <c r="F13">
-        <v>0.9967204668333661</v>
+        <v>1.038555417389653</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038805833420304</v>
+        <v>1.032041623692887</v>
       </c>
       <c r="J13">
-        <v>1.004112767204909</v>
+        <v>1.029362322559242</v>
       </c>
       <c r="K13">
-        <v>1.015639891053399</v>
+        <v>1.036212260601458</v>
       </c>
       <c r="L13">
-        <v>0.9993759600617308</v>
+        <v>1.030141884931339</v>
       </c>
       <c r="M13">
-        <v>1.01186652228067</v>
+        <v>1.042148307906158</v>
       </c>
       <c r="N13">
-        <v>1.005246886113675</v>
+        <v>1.013800023365428</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9741575863182844</v>
+        <v>1.022806902342245</v>
       </c>
       <c r="D14">
-        <v>1.00129943289462</v>
+        <v>1.03273372636075</v>
       </c>
       <c r="E14">
-        <v>0.9847989968499778</v>
+        <v>1.026664733145482</v>
       </c>
       <c r="F14">
-        <v>0.9975891184948674</v>
+        <v>1.038724085554412</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039102488757975</v>
+        <v>1.032078114661346</v>
       </c>
       <c r="J14">
-        <v>1.004683663469598</v>
+        <v>1.029471255320485</v>
       </c>
       <c r="K14">
-        <v>1.016213822100693</v>
+        <v>1.036316715247401</v>
       </c>
       <c r="L14">
-        <v>1.000030744231998</v>
+        <v>1.030270552329481</v>
       </c>
       <c r="M14">
-        <v>1.012573672936541</v>
+        <v>1.042284829388987</v>
       </c>
       <c r="N14">
-        <v>1.005438366524697</v>
+        <v>1.013836364655922</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9747284653651854</v>
+        <v>1.022912199453363</v>
       </c>
       <c r="D15">
-        <v>1.001748675592074</v>
+        <v>1.03281794452092</v>
       </c>
       <c r="E15">
-        <v>0.985301608222547</v>
+        <v>1.026764084204482</v>
       </c>
       <c r="F15">
-        <v>0.9981223812617853</v>
+        <v>1.038828013854973</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039284220587059</v>
+        <v>1.032100552346416</v>
       </c>
       <c r="J15">
-        <v>1.005034003951266</v>
+        <v>1.029538362735617</v>
       </c>
       <c r="K15">
-        <v>1.016565944957412</v>
+        <v>1.036381050653428</v>
       </c>
       <c r="L15">
-        <v>1.000432639134534</v>
+        <v>1.030349826634936</v>
       </c>
       <c r="M15">
-        <v>1.013007668732565</v>
+        <v>1.042368936022795</v>
       </c>
       <c r="N15">
-        <v>1.005555871259127</v>
+        <v>1.013858751417916</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.978017987598909</v>
+        <v>1.023525138998404</v>
       </c>
       <c r="D16">
-        <v>1.004338122366495</v>
+        <v>1.033308031451348</v>
       </c>
       <c r="E16">
-        <v>0.9882005052768207</v>
+        <v>1.027342552970609</v>
       </c>
       <c r="F16">
-        <v>1.001197153110978</v>
+        <v>1.039433016716873</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040326221692382</v>
+        <v>1.032230452662234</v>
       </c>
       <c r="J16">
-        <v>1.007052063043386</v>
+        <v>1.029928809071353</v>
       </c>
       <c r="K16">
-        <v>1.01859304107987</v>
+        <v>1.036755165686191</v>
       </c>
       <c r="L16">
-        <v>1.002748807176569</v>
+        <v>1.030811207482362</v>
       </c>
       <c r="M16">
-        <v>1.015508211880835</v>
+        <v>1.042858338700366</v>
       </c>
       <c r="N16">
-        <v>1.006232719387099</v>
+        <v>1.013988986120227</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9800529171478978</v>
+        <v>1.02390967666779</v>
       </c>
       <c r="D17">
-        <v>1.005940620702827</v>
+        <v>1.033615361919477</v>
       </c>
       <c r="E17">
-        <v>0.9899961484745999</v>
+        <v>1.027705589019194</v>
       </c>
       <c r="F17">
-        <v>1.003100932608358</v>
+        <v>1.039812602245058</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040966211146165</v>
+        <v>1.032311321671642</v>
       </c>
       <c r="J17">
-        <v>1.008299817771836</v>
+        <v>1.030173595102369</v>
       </c>
       <c r="K17">
-        <v>1.01984528495004</v>
+        <v>1.036989533865526</v>
       </c>
       <c r="L17">
-        <v>1.004181884905896</v>
+        <v>1.031100592674471</v>
       </c>
       <c r="M17">
-        <v>1.017054808825397</v>
+        <v>1.043165209195013</v>
       </c>
       <c r="N17">
-        <v>1.006651196740711</v>
+        <v>1.014070620656467</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9812298834068722</v>
+        <v>1.024133991393626</v>
       </c>
       <c r="D18">
-        <v>1.006867678502163</v>
+        <v>1.033794590517213</v>
       </c>
       <c r="E18">
-        <v>0.9910355445032915</v>
+        <v>1.027917405660768</v>
       </c>
       <c r="F18">
-        <v>1.004202631523648</v>
+        <v>1.040034037788921</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041334688961652</v>
+        <v>1.032358269752453</v>
       </c>
       <c r="J18">
-        <v>1.009021250719466</v>
+        <v>1.030316327395975</v>
       </c>
       <c r="K18">
-        <v>1.020568910570737</v>
+        <v>1.037126126964476</v>
       </c>
       <c r="L18">
-        <v>1.005010831293339</v>
+        <v>1.031269376290123</v>
       </c>
       <c r="M18">
-        <v>1.017949214254956</v>
+        <v>1.043344158481236</v>
       </c>
       <c r="N18">
-        <v>1.006893147568106</v>
+        <v>1.014118215633658</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9816295340826492</v>
+        <v>1.024210480371363</v>
       </c>
       <c r="D19">
-        <v>1.007182501804172</v>
+        <v>1.033855697369304</v>
       </c>
       <c r="E19">
-        <v>0.9913886205394629</v>
+        <v>1.027989640469483</v>
       </c>
       <c r="F19">
-        <v>1.004576821931589</v>
+        <v>1.040109546604325</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041459522012896</v>
+        <v>1.032374240259023</v>
       </c>
       <c r="J19">
-        <v>1.00926617725575</v>
+        <v>1.03036498738729</v>
       </c>
       <c r="K19">
-        <v>1.020814512474596</v>
+        <v>1.03717268301938</v>
       </c>
       <c r="L19">
-        <v>1.005292320250332</v>
+        <v>1.031326925447695</v>
       </c>
       <c r="M19">
-        <v>1.018252896353777</v>
+        <v>1.043405168233198</v>
       </c>
       <c r="N19">
-        <v>1.006975288664947</v>
+        <v>1.014134440710674</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9798356266421764</v>
+        <v>1.023868417301911</v>
       </c>
       <c r="D20">
-        <v>1.005769483757679</v>
+        <v>1.033582391578377</v>
       </c>
       <c r="E20">
-        <v>0.9898043226165647</v>
+        <v>1.027666632076317</v>
       </c>
       <c r="F20">
-        <v>1.002897584876872</v>
+        <v>1.039771873229413</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040898046691432</v>
+        <v>1.032302668093693</v>
       </c>
       <c r="J20">
-        <v>1.008166607196817</v>
+        <v>1.030147336761847</v>
       </c>
       <c r="K20">
-        <v>1.019711636757379</v>
+        <v>1.03696439973961</v>
       </c>
       <c r="L20">
-        <v>1.004028851612798</v>
+        <v>1.031069545398414</v>
       </c>
       <c r="M20">
-        <v>1.016889674384788</v>
+        <v>1.043132289345764</v>
       </c>
       <c r="N20">
-        <v>1.006606520643882</v>
+        <v>1.014061864220659</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9738841417873034</v>
+        <v>1.022756577709474</v>
       </c>
       <c r="D21">
-        <v>1.001084266474843</v>
+        <v>1.032693473329439</v>
       </c>
       <c r="E21">
-        <v>0.9845583015031719</v>
+        <v>1.026617252812391</v>
       </c>
       <c r="F21">
-        <v>0.997333728315893</v>
+        <v>1.03867441567462</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039015349907895</v>
+        <v>1.03206737848036</v>
       </c>
       <c r="J21">
-        <v>1.004515842993523</v>
+        <v>1.029439179347617</v>
       </c>
       <c r="K21">
-        <v>1.016045126171114</v>
+        <v>1.036285960653795</v>
       </c>
       <c r="L21">
-        <v>0.9998382484153876</v>
+        <v>1.030232663387587</v>
       </c>
       <c r="M21">
-        <v>1.01236579071052</v>
+        <v>1.042244629038066</v>
       </c>
       <c r="N21">
-        <v>1.005382079117618</v>
+        <v>1.013825663948389</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.970045807182324</v>
+        <v>1.022057705860595</v>
       </c>
       <c r="D22">
-        <v>0.998065114561125</v>
+        <v>1.032134292878899</v>
       </c>
       <c r="E22">
-        <v>0.9811830535065931</v>
+        <v>1.025958046980136</v>
       </c>
       <c r="F22">
-        <v>0.9937513373862638</v>
+        <v>1.037984673980646</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037786137731181</v>
+        <v>1.031917450943336</v>
       </c>
       <c r="J22">
-        <v>1.00215943702977</v>
+        <v>1.028993510700951</v>
       </c>
       <c r="K22">
-        <v>1.013674999605813</v>
+        <v>1.035858413958891</v>
       </c>
       <c r="L22">
-        <v>0.997136726894628</v>
+        <v>1.029706397883349</v>
       </c>
       <c r="M22">
-        <v>1.00944760622539</v>
+        <v>1.041686138790426</v>
       </c>
       <c r="N22">
-        <v>1.004591727705708</v>
+        <v>1.01367696724535</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9720900509503621</v>
+        <v>1.022428173340824</v>
       </c>
       <c r="D23">
-        <v>0.9996728031732369</v>
+        <v>1.032430751452511</v>
       </c>
       <c r="E23">
-        <v>0.982979878038687</v>
+        <v>1.026307449178595</v>
       </c>
       <c r="F23">
-        <v>0.995658683148977</v>
+        <v>1.038350292913716</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038442183788511</v>
+        <v>1.031997118987602</v>
       </c>
       <c r="J23">
-        <v>1.003414585432202</v>
+        <v>1.029229807899362</v>
       </c>
       <c r="K23">
-        <v>1.014937782827781</v>
+        <v>1.036085157691119</v>
       </c>
       <c r="L23">
-        <v>0.9985753904573297</v>
+        <v>1.029985388989832</v>
       </c>
       <c r="M23">
-        <v>1.011001817457015</v>
+        <v>1.041982241091697</v>
       </c>
       <c r="N23">
-        <v>1.005012712525626</v>
+        <v>1.013755811945911</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9799338416215867</v>
+        <v>1.023887060570216</v>
       </c>
       <c r="D24">
-        <v>1.005846836778531</v>
+        <v>1.033597289555437</v>
       </c>
       <c r="E24">
-        <v>0.9898910250487643</v>
+        <v>1.027684234844623</v>
       </c>
       <c r="F24">
-        <v>1.002989495927138</v>
+        <v>1.039790276826569</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040928862139039</v>
+        <v>1.03230657895731</v>
       </c>
       <c r="J24">
-        <v>1.008226818940993</v>
+        <v>1.030159201921656</v>
       </c>
       <c r="K24">
-        <v>1.019772047558037</v>
+        <v>1.036975757108786</v>
       </c>
       <c r="L24">
-        <v>1.004098022184914</v>
+        <v>1.031083574356544</v>
       </c>
       <c r="M24">
-        <v>1.016964315273805</v>
+        <v>1.043147164541732</v>
       </c>
       <c r="N24">
-        <v>1.006626714449268</v>
+        <v>1.01406582094218</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9886476269866113</v>
+        <v>1.02558081747017</v>
       </c>
       <c r="D25">
-        <v>1.012713151089674</v>
+        <v>1.034949730664321</v>
       </c>
       <c r="E25">
-        <v>0.9976004272662015</v>
+        <v>1.029284420068031</v>
       </c>
       <c r="F25">
-        <v>1.011155797434</v>
+        <v>1.041462461078708</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043626425379452</v>
+        <v>1.032657001359037</v>
       </c>
       <c r="J25">
-        <v>1.013563178223536</v>
+        <v>1.03123585609466</v>
       </c>
       <c r="K25">
-        <v>1.025117266083895</v>
+        <v>1.038004934502534</v>
       </c>
       <c r="L25">
-        <v>1.010236108070974</v>
+        <v>1.032357567748443</v>
       </c>
       <c r="M25">
-        <v>1.023583367653094</v>
+        <v>1.044497300547631</v>
       </c>
       <c r="N25">
-        <v>1.008416242912265</v>
+        <v>1.014424741867417</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_217/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_217/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026932387521171</v>
+        <v>0.9953153222577779</v>
       </c>
       <c r="D2">
-        <v>1.036027381065861</v>
+        <v>1.017970143370369</v>
       </c>
       <c r="E2">
-        <v>1.030562713039575</v>
+        <v>1.003522852696765</v>
       </c>
       <c r="F2">
-        <v>1.042797098461808</v>
+        <v>1.017420076079798</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032929471634726</v>
+        <v>1.045636180272518</v>
       </c>
       <c r="J2">
-        <v>1.032093075493366</v>
+        <v>1.01763705980786</v>
       </c>
       <c r="K2">
-        <v>1.038822297994701</v>
+        <v>1.029184676106127</v>
       </c>
       <c r="L2">
-        <v>1.033373363740194</v>
+        <v>1.01493332580162</v>
       </c>
       <c r="M2">
-        <v>1.04557277237106</v>
+        <v>1.028641941090633</v>
       </c>
       <c r="N2">
-        <v>1.01471034057442</v>
+        <v>1.00978204576974</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027914111079139</v>
+        <v>1.000006654113547</v>
       </c>
       <c r="D3">
-        <v>1.03680922309728</v>
+        <v>1.02166924859544</v>
       </c>
       <c r="E3">
-        <v>1.031492008187135</v>
+        <v>1.007702351484866</v>
       </c>
       <c r="F3">
-        <v>1.043766676174212</v>
+        <v>1.021835463299482</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033123224824504</v>
+        <v>1.047017588559702</v>
       </c>
       <c r="J3">
-        <v>1.032714603400047</v>
+        <v>1.020497137732786</v>
       </c>
       <c r="K3">
-        <v>1.039413730195474</v>
+        <v>1.03203217615024</v>
       </c>
       <c r="L3">
-        <v>1.034110715006926</v>
+        <v>1.01823761883411</v>
       </c>
       <c r="M3">
-        <v>1.046352839301885</v>
+        <v>1.032196375146442</v>
       </c>
       <c r="N3">
-        <v>1.014917314653295</v>
+        <v>1.010740632894319</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028549518893934</v>
+        <v>1.002977001278717</v>
       </c>
       <c r="D4">
-        <v>1.037314830967388</v>
+        <v>1.024011087373955</v>
       </c>
       <c r="E4">
-        <v>1.032093848025518</v>
+        <v>1.010354148006374</v>
       </c>
       <c r="F4">
-        <v>1.044394290338766</v>
+        <v>1.024634420894206</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033246702799699</v>
+        <v>1.047876750946656</v>
       </c>
       <c r="J4">
-        <v>1.033116358741358</v>
+        <v>1.022304860409595</v>
       </c>
       <c r="K4">
-        <v>1.039795475133688</v>
+        <v>1.033828105738362</v>
       </c>
       <c r="L4">
-        <v>1.034587731283177</v>
+        <v>1.020329193377723</v>
       </c>
       <c r="M4">
-        <v>1.046857210457465</v>
+        <v>1.034444350531483</v>
       </c>
       <c r="N4">
-        <v>1.015051056158056</v>
+        <v>1.011346360087162</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028816683828749</v>
+        <v>1.004210690041441</v>
       </c>
       <c r="D5">
-        <v>1.03752731649736</v>
+        <v>1.024983608093119</v>
       </c>
       <c r="E5">
-        <v>1.032346985963186</v>
+        <v>1.011456817081252</v>
       </c>
       <c r="F5">
-        <v>1.044658194016715</v>
+        <v>1.025797677755742</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033298159083599</v>
+        <v>1.048229818709361</v>
       </c>
       <c r="J5">
-        <v>1.033285156706183</v>
+        <v>1.023054877325073</v>
       </c>
       <c r="K5">
-        <v>1.039955732111675</v>
+        <v>1.034572288643427</v>
       </c>
       <c r="L5">
-        <v>1.034788244378481</v>
+        <v>1.021197724424991</v>
       </c>
       <c r="M5">
-        <v>1.047069155176819</v>
+        <v>1.035377354462245</v>
       </c>
       <c r="N5">
-        <v>1.015107236629846</v>
+        <v>1.011597634245716</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028861544298123</v>
+        <v>1.004416965783891</v>
       </c>
       <c r="D6">
-        <v>1.037562989497314</v>
+        <v>1.025146206730325</v>
       </c>
       <c r="E6">
-        <v>1.032389496209108</v>
+        <v>1.011641260490255</v>
       </c>
       <c r="F6">
-        <v>1.044702507783259</v>
+        <v>1.025992220029856</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033306772188205</v>
+        <v>1.048288629082196</v>
       </c>
       <c r="J6">
-        <v>1.033313492744399</v>
+        <v>1.023180234281221</v>
       </c>
       <c r="K6">
-        <v>1.039982626533336</v>
+        <v>1.034696614623661</v>
       </c>
       <c r="L6">
-        <v>1.034821909947434</v>
+        <v>1.021342933662162</v>
       </c>
       <c r="M6">
-        <v>1.047104736152709</v>
+        <v>1.035533314834054</v>
       </c>
       <c r="N6">
-        <v>1.015116666963372</v>
+        <v>1.011639629490172</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028553088610324</v>
+        <v>1.002993544262919</v>
       </c>
       <c r="D7">
-        <v>1.037317670493828</v>
+        <v>1.024024128839414</v>
       </c>
       <c r="E7">
-        <v>1.032097229979103</v>
+        <v>1.010368929070303</v>
       </c>
       <c r="F7">
-        <v>1.044397816419012</v>
+        <v>1.024650016518611</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033247392145191</v>
+        <v>1.047881500341467</v>
       </c>
       <c r="J7">
-        <v>1.033118614621746</v>
+        <v>1.022314920843194</v>
       </c>
       <c r="K7">
-        <v>1.039797617394589</v>
+        <v>1.033838091662085</v>
       </c>
       <c r="L7">
-        <v>1.034590410646404</v>
+        <v>1.020340840561024</v>
       </c>
       <c r="M7">
-        <v>1.046860042839423</v>
+        <v>1.034456864189748</v>
       </c>
       <c r="N7">
-        <v>1.015051807019298</v>
+        <v>1.011349730741503</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02726413071148</v>
+        <v>0.9969146498109055</v>
       </c>
       <c r="D8">
-        <v>1.036291668908758</v>
+        <v>1.019231229271007</v>
       </c>
       <c r="E8">
-        <v>1.030876663693603</v>
+        <v>1.004946507882332</v>
       </c>
       <c r="F8">
-        <v>1.04312472304423</v>
+        <v>1.018924604160914</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032995343093311</v>
+        <v>1.046110332507117</v>
       </c>
       <c r="J8">
-        <v>1.032303209231828</v>
+        <v>1.018612731654262</v>
       </c>
       <c r="K8">
-        <v>1.0390223717194</v>
+        <v>1.030156853059761</v>
       </c>
       <c r="L8">
-        <v>1.033622575148606</v>
+        <v>1.016059889889251</v>
       </c>
       <c r="M8">
-        <v>1.045836478670991</v>
+        <v>1.029854189040128</v>
       </c>
       <c r="N8">
-        <v>1.01478032648567</v>
+        <v>1.010109082842721</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024994122909269</v>
+        <v>0.9856754381085503</v>
       </c>
       <c r="D9">
-        <v>1.034481502763193</v>
+        <v>1.010370451210145</v>
       </c>
       <c r="E9">
-        <v>1.0287299210981</v>
+        <v>0.9949670095998283</v>
       </c>
       <c r="F9">
-        <v>1.040883194084553</v>
+        <v>1.008367742291119</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032536726116828</v>
+        <v>1.042714748184619</v>
       </c>
       <c r="J9">
-        <v>1.030863213813366</v>
+        <v>1.01174437565201</v>
       </c>
       <c r="K9">
-        <v>1.037649042044032</v>
+        <v>1.023297486305916</v>
       </c>
       <c r="L9">
-        <v>1.031916398635029</v>
+        <v>1.008142274785492</v>
       </c>
       <c r="M9">
-        <v>1.044029924110577</v>
+        <v>1.021326502031775</v>
       </c>
       <c r="N9">
-        <v>1.014300541423273</v>
+        <v>1.00780636099972</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023481685309714</v>
+        <v>0.9777866502545465</v>
       </c>
       <c r="D10">
-        <v>1.033273295834974</v>
+        <v>1.004155974839433</v>
       </c>
       <c r="E10">
-        <v>1.027301535061857</v>
+        <v>0.987996485247251</v>
       </c>
       <c r="F10">
-        <v>1.039390123940946</v>
+        <v>1.000980807124712</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032221283734639</v>
+        <v>1.040253238154876</v>
       </c>
       <c r="J10">
-        <v>1.029901139512996</v>
+        <v>1.006910181973875</v>
       </c>
       <c r="K10">
-        <v>1.036728664973952</v>
+        <v>1.018450595132368</v>
       </c>
       <c r="L10">
-        <v>1.030778502850209</v>
+        <v>1.002585902565343</v>
       </c>
       <c r="M10">
-        <v>1.042823653569831</v>
+        <v>1.015332375348162</v>
       </c>
       <c r="N10">
-        <v>1.013979757786975</v>
+        <v>1.006185133922413</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022827001572029</v>
+        <v>0.9742666883598193</v>
       </c>
       <c r="D11">
-        <v>1.032749802598758</v>
+        <v>1.001385285318561</v>
       </c>
       <c r="E11">
-        <v>1.026683696838485</v>
+        <v>0.9848950412353383</v>
       </c>
       <c r="F11">
-        <v>1.038743923382244</v>
+        <v>0.9976910236207998</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032082400335844</v>
+        <v>1.039137239951443</v>
       </c>
       <c r="J11">
-        <v>1.029484065588566</v>
+        <v>1.004750620369335</v>
       </c>
       <c r="K11">
-        <v>1.036328997145469</v>
+        <v>1.016281124387184</v>
       </c>
       <c r="L11">
-        <v>1.030285684600244</v>
+        <v>1.000107549745833</v>
       </c>
       <c r="M11">
-        <v>1.042300884474629</v>
+        <v>1.012656615615929</v>
       </c>
       <c r="N11">
-        <v>1.013840638173576</v>
+        <v>1.005460824007979</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022583854976826</v>
+        <v>0.9729426456147391</v>
       </c>
       <c r="D12">
-        <v>1.032555305033998</v>
+        <v>1.000343506981206</v>
       </c>
       <c r="E12">
-        <v>1.026454304492041</v>
+        <v>0.9837298100509477</v>
       </c>
       <c r="F12">
-        <v>1.03850394291285</v>
+        <v>0.9964545766845979</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032030468584717</v>
+        <v>1.038714875229661</v>
       </c>
       <c r="J12">
-        <v>1.029329072782418</v>
+        <v>1.003937966107909</v>
       </c>
       <c r="K12">
-        <v>1.036180372390807</v>
+        <v>1.0154641288972</v>
       </c>
       <c r="L12">
-        <v>1.030102615288868</v>
+        <v>0.9991755036345479</v>
       </c>
       <c r="M12">
-        <v>1.042106638498541</v>
+        <v>1.01165001809441</v>
       </c>
       <c r="N12">
-        <v>1.013788930403985</v>
+        <v>1.005188257078166</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022636009289941</v>
+        <v>0.9732274230540978</v>
       </c>
       <c r="D13">
-        <v>1.032597027617922</v>
+        <v>1.000567553800748</v>
       </c>
       <c r="E13">
-        <v>1.026503505378924</v>
+        <v>0.9839803663796787</v>
       </c>
       <c r="F13">
-        <v>1.038555417389653</v>
+        <v>0.9967204668333671</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032041623692887</v>
+        <v>1.038805833420304</v>
       </c>
       <c r="J13">
-        <v>1.029362322559242</v>
+        <v>1.00411276720491</v>
       </c>
       <c r="K13">
-        <v>1.036212260601458</v>
+        <v>1.0156398910534</v>
       </c>
       <c r="L13">
-        <v>1.030141884931339</v>
+        <v>0.9993759600617317</v>
       </c>
       <c r="M13">
-        <v>1.042148307906158</v>
+        <v>1.011866522280672</v>
       </c>
       <c r="N13">
-        <v>1.013800023365428</v>
+        <v>1.005246886113675</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022806902342245</v>
+        <v>0.9741575863182835</v>
       </c>
       <c r="D14">
-        <v>1.03273372636075</v>
+        <v>1.001299432894619</v>
       </c>
       <c r="E14">
-        <v>1.026664733145482</v>
+        <v>0.984798996849977</v>
       </c>
       <c r="F14">
-        <v>1.038724085554412</v>
+        <v>0.9975891184948661</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032078114661346</v>
+        <v>1.039102488757975</v>
       </c>
       <c r="J14">
-        <v>1.029471255320485</v>
+        <v>1.004683663469597</v>
       </c>
       <c r="K14">
-        <v>1.036316715247401</v>
+        <v>1.016213822100692</v>
       </c>
       <c r="L14">
-        <v>1.030270552329481</v>
+        <v>1.000030744231998</v>
       </c>
       <c r="M14">
-        <v>1.042284829388987</v>
+        <v>1.01257367293654</v>
       </c>
       <c r="N14">
-        <v>1.013836364655922</v>
+        <v>1.005438366524697</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022912199453363</v>
+        <v>0.9747284653651859</v>
       </c>
       <c r="D15">
-        <v>1.03281794452092</v>
+        <v>1.001748675592075</v>
       </c>
       <c r="E15">
-        <v>1.026764084204482</v>
+        <v>0.9853016082225473</v>
       </c>
       <c r="F15">
-        <v>1.038828013854973</v>
+        <v>0.9981223812617851</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032100552346416</v>
+        <v>1.039284220587059</v>
       </c>
       <c r="J15">
-        <v>1.029538362735617</v>
+        <v>1.005034003951267</v>
       </c>
       <c r="K15">
-        <v>1.036381050653428</v>
+        <v>1.016565944957412</v>
       </c>
       <c r="L15">
-        <v>1.030349826634936</v>
+        <v>1.000432639134534</v>
       </c>
       <c r="M15">
-        <v>1.042368936022795</v>
+        <v>1.013007668732565</v>
       </c>
       <c r="N15">
-        <v>1.013858751417916</v>
+        <v>1.005555871259127</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023525138998404</v>
+        <v>0.9780179875989091</v>
       </c>
       <c r="D16">
-        <v>1.033308031451348</v>
+        <v>1.004338122366495</v>
       </c>
       <c r="E16">
-        <v>1.027342552970609</v>
+        <v>0.9882005052768214</v>
       </c>
       <c r="F16">
-        <v>1.039433016716873</v>
+        <v>1.001197153110979</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032230452662234</v>
+        <v>1.040326221692382</v>
       </c>
       <c r="J16">
-        <v>1.029928809071353</v>
+        <v>1.007052063043387</v>
       </c>
       <c r="K16">
-        <v>1.036755165686191</v>
+        <v>1.018593041079871</v>
       </c>
       <c r="L16">
-        <v>1.030811207482362</v>
+        <v>1.002748807176569</v>
       </c>
       <c r="M16">
-        <v>1.042858338700366</v>
+        <v>1.015508211880835</v>
       </c>
       <c r="N16">
-        <v>1.013988986120227</v>
+        <v>1.006232719387099</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02390967666779</v>
+        <v>0.9800529171478984</v>
       </c>
       <c r="D17">
-        <v>1.033615361919477</v>
+        <v>1.005940620702827</v>
       </c>
       <c r="E17">
-        <v>1.027705589019194</v>
+        <v>0.9899961484746009</v>
       </c>
       <c r="F17">
-        <v>1.039812602245058</v>
+        <v>1.003100932608359</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032311321671642</v>
+        <v>1.040966211146166</v>
       </c>
       <c r="J17">
-        <v>1.030173595102369</v>
+        <v>1.008299817771836</v>
       </c>
       <c r="K17">
-        <v>1.036989533865526</v>
+        <v>1.019845284950041</v>
       </c>
       <c r="L17">
-        <v>1.031100592674471</v>
+        <v>1.004181884905897</v>
       </c>
       <c r="M17">
-        <v>1.043165209195013</v>
+        <v>1.017054808825398</v>
       </c>
       <c r="N17">
-        <v>1.014070620656467</v>
+        <v>1.006651196740711</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024133991393626</v>
+        <v>0.9812298834068722</v>
       </c>
       <c r="D18">
-        <v>1.033794590517213</v>
+        <v>1.006867678502163</v>
       </c>
       <c r="E18">
-        <v>1.027917405660768</v>
+        <v>0.9910355445032912</v>
       </c>
       <c r="F18">
-        <v>1.040034037788921</v>
+        <v>1.004202631523648</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032358269752453</v>
+        <v>1.041334688961652</v>
       </c>
       <c r="J18">
-        <v>1.030316327395975</v>
+        <v>1.009021250719466</v>
       </c>
       <c r="K18">
-        <v>1.037126126964476</v>
+        <v>1.020568910570737</v>
       </c>
       <c r="L18">
-        <v>1.031269376290123</v>
+        <v>1.005010831293339</v>
       </c>
       <c r="M18">
-        <v>1.043344158481236</v>
+        <v>1.017949214254956</v>
       </c>
       <c r="N18">
-        <v>1.014118215633658</v>
+        <v>1.006893147568106</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024210480371363</v>
+        <v>0.9816295340826497</v>
       </c>
       <c r="D19">
-        <v>1.033855697369304</v>
+        <v>1.007182501804172</v>
       </c>
       <c r="E19">
-        <v>1.027989640469483</v>
+        <v>0.9913886205394633</v>
       </c>
       <c r="F19">
-        <v>1.040109546604325</v>
+        <v>1.004576821931589</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032374240259023</v>
+        <v>1.041459522012896</v>
       </c>
       <c r="J19">
-        <v>1.03036498738729</v>
+        <v>1.00926617725575</v>
       </c>
       <c r="K19">
-        <v>1.03717268301938</v>
+        <v>1.020814512474597</v>
       </c>
       <c r="L19">
-        <v>1.031326925447695</v>
+        <v>1.005292320250332</v>
       </c>
       <c r="M19">
-        <v>1.043405168233198</v>
+        <v>1.018252896353778</v>
       </c>
       <c r="N19">
-        <v>1.014134440710674</v>
+        <v>1.006975288664947</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023868417301911</v>
+        <v>0.9798356266421759</v>
       </c>
       <c r="D20">
-        <v>1.033582391578377</v>
+        <v>1.005769483757678</v>
       </c>
       <c r="E20">
-        <v>1.027666632076317</v>
+        <v>0.9898043226165645</v>
       </c>
       <c r="F20">
-        <v>1.039771873229413</v>
+        <v>1.002897584876871</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032302668093693</v>
+        <v>1.040898046691432</v>
       </c>
       <c r="J20">
-        <v>1.030147336761847</v>
+        <v>1.008166607196817</v>
       </c>
       <c r="K20">
-        <v>1.03696439973961</v>
+        <v>1.019711636757378</v>
       </c>
       <c r="L20">
-        <v>1.031069545398414</v>
+        <v>1.004028851612798</v>
       </c>
       <c r="M20">
-        <v>1.043132289345764</v>
+        <v>1.016889674384788</v>
       </c>
       <c r="N20">
-        <v>1.014061864220659</v>
+        <v>1.006606520643881</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022756577709474</v>
+        <v>0.973884141787304</v>
       </c>
       <c r="D21">
-        <v>1.032693473329439</v>
+        <v>1.001084266474844</v>
       </c>
       <c r="E21">
-        <v>1.026617252812391</v>
+        <v>0.9845583015031724</v>
       </c>
       <c r="F21">
-        <v>1.03867441567462</v>
+        <v>0.9973337283158934</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03206737848036</v>
+        <v>1.039015349907896</v>
       </c>
       <c r="J21">
-        <v>1.029439179347617</v>
+        <v>1.004515842993524</v>
       </c>
       <c r="K21">
-        <v>1.036285960653795</v>
+        <v>1.016045126171115</v>
       </c>
       <c r="L21">
-        <v>1.030232663387587</v>
+        <v>0.9998382484153882</v>
       </c>
       <c r="M21">
-        <v>1.042244629038066</v>
+        <v>1.012365790710521</v>
       </c>
       <c r="N21">
-        <v>1.013825663948389</v>
+        <v>1.005382079117618</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022057705860595</v>
+        <v>0.9700458071823246</v>
       </c>
       <c r="D22">
-        <v>1.032134292878899</v>
+        <v>0.9980651145611252</v>
       </c>
       <c r="E22">
-        <v>1.025958046980136</v>
+        <v>0.9811830535065935</v>
       </c>
       <c r="F22">
-        <v>1.037984673980646</v>
+        <v>0.9937513373862641</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031917450943336</v>
+        <v>1.037786137731181</v>
       </c>
       <c r="J22">
-        <v>1.028993510700951</v>
+        <v>1.002159437029771</v>
       </c>
       <c r="K22">
-        <v>1.035858413958891</v>
+        <v>1.013674999605813</v>
       </c>
       <c r="L22">
-        <v>1.029706397883349</v>
+        <v>0.9971367268946284</v>
       </c>
       <c r="M22">
-        <v>1.041686138790426</v>
+        <v>1.009447606225391</v>
       </c>
       <c r="N22">
-        <v>1.01367696724535</v>
+        <v>1.004591727705708</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022428173340824</v>
+        <v>0.9720900509503618</v>
       </c>
       <c r="D23">
-        <v>1.032430751452511</v>
+        <v>0.9996728031732363</v>
       </c>
       <c r="E23">
-        <v>1.026307449178595</v>
+        <v>0.9829798780386867</v>
       </c>
       <c r="F23">
-        <v>1.038350292913716</v>
+        <v>0.9956586831489768</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031997118987602</v>
+        <v>1.038442183788511</v>
       </c>
       <c r="J23">
-        <v>1.029229807899362</v>
+        <v>1.003414585432202</v>
       </c>
       <c r="K23">
-        <v>1.036085157691119</v>
+        <v>1.014937782827781</v>
       </c>
       <c r="L23">
-        <v>1.029985388989832</v>
+        <v>0.9985753904573297</v>
       </c>
       <c r="M23">
-        <v>1.041982241091697</v>
+        <v>1.011001817457015</v>
       </c>
       <c r="N23">
-        <v>1.013755811945911</v>
+        <v>1.005012712525626</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023887060570216</v>
+        <v>0.9799338416215863</v>
       </c>
       <c r="D24">
-        <v>1.033597289555437</v>
+        <v>1.00584683677853</v>
       </c>
       <c r="E24">
-        <v>1.027684234844623</v>
+        <v>0.9898910250487637</v>
       </c>
       <c r="F24">
-        <v>1.039790276826569</v>
+        <v>1.002989495927138</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03230657895731</v>
+        <v>1.040928862139039</v>
       </c>
       <c r="J24">
-        <v>1.030159201921656</v>
+        <v>1.008226818940992</v>
       </c>
       <c r="K24">
-        <v>1.036975757108786</v>
+        <v>1.019772047558037</v>
       </c>
       <c r="L24">
-        <v>1.031083574356544</v>
+        <v>1.004098022184913</v>
       </c>
       <c r="M24">
-        <v>1.043147164541732</v>
+        <v>1.016964315273804</v>
       </c>
       <c r="N24">
-        <v>1.01406582094218</v>
+        <v>1.006626714449268</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02558081747017</v>
+        <v>0.9886476269866117</v>
       </c>
       <c r="D25">
-        <v>1.034949730664321</v>
+        <v>1.012713151089675</v>
       </c>
       <c r="E25">
-        <v>1.029284420068031</v>
+        <v>0.9976004272662019</v>
       </c>
       <c r="F25">
-        <v>1.041462461078708</v>
+        <v>1.011155797434</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032657001359037</v>
+        <v>1.043626425379452</v>
       </c>
       <c r="J25">
-        <v>1.03123585609466</v>
+        <v>1.013563178223536</v>
       </c>
       <c r="K25">
-        <v>1.038004934502534</v>
+        <v>1.025117266083895</v>
       </c>
       <c r="L25">
-        <v>1.032357567748443</v>
+        <v>1.010236108070975</v>
       </c>
       <c r="M25">
-        <v>1.044497300547631</v>
+        <v>1.023583367653095</v>
       </c>
       <c r="N25">
-        <v>1.014424741867417</v>
+        <v>1.008416242912265</v>
       </c>
     </row>
   </sheetData>
